--- a/src/test/resources/Documents/33229/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33229/Actual/JobPlanning.xlsx
@@ -1121,13 +1121,13 @@
         <v>34</v>
       </c>
       <c r="B6" t="s" s="55">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="56">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="57">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -1136,7 +1136,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="60">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s" s="61">
         <v>18</v>
@@ -1151,10 +1151,10 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1162,13 +1162,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="68">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="69">
         <v>18</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>18</v>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s" s="73">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s" s="74">
         <v>18</v>
@@ -1192,10 +1192,10 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s" s="79">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1203,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="81">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="82">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="84">
         <v>18</v>
@@ -1218,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="86">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s" s="87">
         <v>18</v>
@@ -1233,10 +1233,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/Documents/33229/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33229/Actual/JobPlanning.xlsx
@@ -65,19 +65,31 @@
     <t>1-sheet (Collated/Nested)  2p</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">169-Press Approval Task </t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
+    <t>Press Approval Task</t>
+  </si>
+  <si>
     <t>Digital Print F/B 4x4</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>252-HP 10000 Press</t>
   </si>
   <si>
     <t>665</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
   </si>
   <si>
     <t>Cut</t>
@@ -94,18 +106,6 @@
 405-54" Polar 137EMC Cutter
 402-45" Polar 115EMC Cutter
 403-54" Polar 137ED Cutter</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169-Press Approval Task </t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>Press Approval Task</t>
   </si>
   <si>
     <t>1-sheet (Collated/Nested) - Prepress</t>
@@ -987,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s" s="14">
         <v>19</v>
@@ -998,13 +998,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="19">
         <v>18</v>
@@ -1013,7 +1013,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="22">
         <v>18</v>
@@ -1028,10 +1028,10 @@
         <v>18</v>
       </c>
       <c r="L3" t="s" s="26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s" s="27">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1069,10 +1069,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s" s="40">
         <v>29</v>
-      </c>
-      <c r="M4" t="s" s="40">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1151,10 +1151,10 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s" s="66">
         <v>29</v>
-      </c>
-      <c r="M6" t="s" s="66">
-        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="68">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="69">
         <v>18</v>
@@ -1192,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s" s="79">
         <v>19</v>
@@ -1203,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="81">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="82">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s" s="84">
         <v>18</v>
@@ -1218,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="86">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s" s="87">
         <v>18</v>
@@ -1233,10 +1233,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
